--- a/IPL/Data/exp/pstats_tpose_v01_MI_fyml.xlsx
+++ b/IPL/Data/exp/pstats_tpose_v01_MI_fyml.xlsx
@@ -453,49 +453,49 @@
         <v>19</v>
       </c>
       <c r="H1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>13</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -580,11 +580,31 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -668,11 +688,31 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -712,77 +752,77 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>Vishnu Vinod</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>TH David</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>T Stubbs</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HR Shokeen</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>JC Archer</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Arjun Tendulkar</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PP Chawla</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>JP Behrendorff</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>RP Meredith</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>JC Archer</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>JP Behrendorff</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>HR Shokeen</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Arjun Tendulkar</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>PP Chawla</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Arshad Khan (2)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>K Kartikeya</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Arshad Khan (2)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Akash Madhwal</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>CJ Jordan</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Duan Jansen</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>R Goyal</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Vishnu Vinod</t>
         </is>
       </c>
     </row>
@@ -824,55 +864,75 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>Vishnu Vinod</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Tim David</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Tristan Stubbs</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Hrithik Shokeen</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Jofra Archer</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Arjun Tendulkar</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Piyush Chawla</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Jason Behrendorff</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Riley Meredith</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Jofra Archer</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Jason Behrendorff</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Hrithik Shokeen</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Arjun Tendulkar</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Piyush Chawla</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Kumar Kartikeya</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Akash Madhwal</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Chris Jordan</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Duan Jansen</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Raghav Goyal</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -912,55 +972,75 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>WKRHB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>LHB</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>LHB</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>RHB</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>LHB</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>LHB</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>RHB</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -994,57 +1074,73 @@
           <t>RAOB</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>RAM</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>RAOB</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>RAOB</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>RAFM</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>LAFM</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>RALB</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>LAFM</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>RAFM</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>LACM</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>RAFM</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>RAFM</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>LAFM</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>RAOB</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>LAFM</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>RALB</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>LACM</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1078,57 +1174,73 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1162,57 +1274,73 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Pace</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Spin</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Pace</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Pace</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Pace</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Spin</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Pace</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>Spin</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Spin</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1246,57 +1374,73 @@
           <t>off-break</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>off-break</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>off-break</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>fast-medium</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>fast-medium</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>leg-break</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>fast-medium</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>off-break</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>fast-medium</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>leg-break</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>chinaman</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>fast-medium</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>fast-medium</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>fast-medium</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>chinaman</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1322,22 +1466,22 @@
       <c r="G11" t="n">
         <v>12</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
         <v>9</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" t="n">
         <v>10</v>
       </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1465,67 +1609,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C13" t="n">
         <v>260</v>
       </c>
       <c r="D13" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E13" t="n">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="F13" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G13" t="n">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H13" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I13" t="n">
+        <v>126</v>
+      </c>
+      <c r="J13" t="n">
         <v>31</v>
       </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O13" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1535,19 +1679,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1559,40 +1703,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1605,46 +1749,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
         <v>88</v>
       </c>
       <c r="E15" t="n">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G15" t="n">
         <v>137</v>
       </c>
       <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="n">
         <v>45</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1665,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1678,46 +1822,46 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H16" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
+        <v>81</v>
+      </c>
+      <c r="J16" t="n">
         <v>8</v>
       </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>11</v>
@@ -1751,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1766,46 +1910,46 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>161</v>
+      </c>
+      <c r="L17" t="n">
+        <v>128</v>
+      </c>
+      <c r="M17" t="n">
+        <v>83</v>
+      </c>
+      <c r="N17" t="n">
+        <v>352</v>
+      </c>
+      <c r="O17" t="n">
+        <v>291</v>
+      </c>
+      <c r="P17" t="n">
         <v>198</v>
       </c>
-      <c r="K17" t="n">
-        <v>177</v>
-      </c>
-      <c r="L17" t="n">
-        <v>262</v>
-      </c>
-      <c r="M17" t="n">
-        <v>141</v>
-      </c>
-      <c r="N17" t="n">
-        <v>83</v>
-      </c>
-      <c r="O17" t="n">
-        <v>355</v>
-      </c>
-      <c r="P17" t="n">
-        <v>167</v>
-      </c>
       <c r="Q17" t="n">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="R17" t="n">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="S17" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="T17" t="n">
+        <v>129</v>
+      </c>
+      <c r="U17" t="n">
         <v>49</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>33</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1836,46 +1980,46 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="J18" t="n">
-        <v>126</v>
-      </c>
       <c r="K18" t="n">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L18" t="n">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="M18" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N18" t="n">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="O18" t="n">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="P18" t="n">
         <v>126</v>
       </c>
       <c r="Q18" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="R18" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="S18" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="T18" t="n">
+        <v>75</v>
+      </c>
+      <c r="U18" t="n">
         <v>28</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>24</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1891,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1909,40 +2053,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>23</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>40</v>
+      </c>
+      <c r="N19" t="n">
+        <v>63</v>
+      </c>
+      <c r="O19" t="n">
+        <v>151</v>
+      </c>
+      <c r="P19" t="n">
         <v>41</v>
       </c>
-      <c r="K19" t="n">
-        <v>70</v>
-      </c>
-      <c r="L19" t="n">
-        <v>144</v>
-      </c>
-      <c r="M19" t="n">
-        <v>14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>40</v>
-      </c>
-      <c r="O19" t="n">
-        <v>73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>16</v>
       </c>
-      <c r="S19" t="n">
-        <v>7</v>
-      </c>
       <c r="T19" t="n">
+        <v>25</v>
+      </c>
+      <c r="U19" t="n">
         <v>15</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1961,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1976,46 +2120,46 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>138</v>
+      </c>
+      <c r="L20" t="n">
+        <v>28</v>
+      </c>
+      <c r="M20" t="n">
+        <v>40</v>
+      </c>
+      <c r="N20" t="n">
+        <v>289</v>
+      </c>
+      <c r="O20" t="n">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
         <v>73</v>
       </c>
-      <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="n">
-        <v>44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>127</v>
-      </c>
-      <c r="N20" t="n">
-        <v>40</v>
-      </c>
-      <c r="O20" t="n">
-        <v>282</v>
-      </c>
-      <c r="P20" t="n">
-        <v>129</v>
-      </c>
       <c r="Q20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="R20" t="n">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="S20" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="T20" t="n">
+        <v>41</v>
+      </c>
+      <c r="U20" t="n">
         <v>13</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>33</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2049,40 +2193,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
         <v>84</v>
       </c>
-      <c r="K21" t="n">
-        <v>57</v>
-      </c>
-      <c r="L21" t="n">
-        <v>74</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
+        <v>51</v>
+      </c>
+      <c r="R21" t="n">
         <v>38</v>
       </c>
-      <c r="Q21" t="n">
-        <v>64</v>
-      </c>
-      <c r="R21" t="n">
-        <v>31</v>
-      </c>
       <c r="S21" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="T21" t="n">
+        <v>63</v>
+      </c>
+      <c r="U21" t="n">
         <v>21</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2107,49 +2251,49 @@
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
         <v>9</v>
       </c>
-      <c r="H22" t="n">
-        <v>12</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="L22" t="n">
-        <v>8</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
         <v>4</v>
       </c>
-      <c r="O22" t="n">
-        <v>12</v>
-      </c>
-      <c r="P22" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
@@ -2171,28 +2315,28 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2204,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2225,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2235,13 +2379,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2305,10 +2449,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -2323,13 +2467,13 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2365,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2378,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -2387,22 +2531,22 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2414,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2445,13 +2589,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2463,16 +2607,16 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2484,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2505,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2515,10 +2659,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
@@ -2533,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2581,7 +2725,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>tr.G03</t>
+          <t>tr.G04</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2602,24 +2746,18 @@
       <c r="G29" t="n">
         <v>84</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
         <v>5</v>
       </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2631,7 +2769,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>tr.G11</t>
+          <t>tr.G12</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2650,27 +2788,23 @@
       <c r="G30" t="n">
         <v>22</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>31</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>5</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="K30" t="n">
         <v>18</v>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>5</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -2681,7 +2815,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>tr.G15</t>
+          <t>tr.G16</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2696,30 +2830,20 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>41</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>13</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2731,7 +2855,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>tr.G22</t>
+          <t>tr.G23</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2752,24 +2876,16 @@
       <c r="G32" t="n">
         <v>30</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>24</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2781,7 +2897,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>tr.G24</t>
+          <t>tr.G25</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2796,32 +2912,20 @@
       <c r="E33" t="n">
         <v>7</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>37</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>16</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2833,7 +2937,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>tr.G30</t>
+          <t>tr.G31</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2854,26 +2958,18 @@
       <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>25</v>
       </c>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2885,7 +2981,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>tr.G34</t>
+          <t>tr.G35</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2906,23 +3002,21 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>18</v>
+      </c>
+      <c r="O35" t="n">
         <v>3</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>13</v>
-      </c>
-      <c r="O35" t="n">
-        <v>18</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2937,7 +3031,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>tr.G41</t>
+          <t>tr.G42</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2956,25 +3050,17 @@
       <c r="G36" t="n">
         <v>29</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>45</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2985,44 +3071,42 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>tr.G44</t>
+          <t>tr.G49</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>26</v>
-      </c>
-      <c r="H37" t="n">
-        <v>19</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>64</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>20</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -3033,41 +3117,35 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>tr.G48</t>
+          <t>tr.G54</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F38" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -3079,42 +3157,38 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>tr.G53</t>
+          <t>tr.G57</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -3125,42 +3199,38 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>tr.G56</t>
+          <t>tr.G63</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -3176,77 +3246,77 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1(9), 2(2), 3(1)</t>
+          <t>1(8), 2(3), 3(1)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1(2), 2(9), 3(1)</t>
+          <t>1(3), 2(9)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1(1), 2(1), 3(6), 5(1), 6(1), 7(2)</t>
+          <t>1(1), 3(6), 5(1), 6(1), 7(3)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3(3), 4(7), 5(2)</t>
+          <t>3(4), 4(6), 5(2)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4(3), 6(2), 7(2), 8(3)</t>
+          <t>4(4), 6(2), 7(2)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3(1), 4(2), 5(4), 6(2)</t>
+          <t>3(1), 4(2), 5(4), 6(1)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>5(1), 6(1)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>5(4), 6(5), 7(3)</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>6(1), 8(1)</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>7(2), 8(1), 10(1), 11(1)</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8(2), 9(1), 10(1), 12(1)</t>
+          <t>8(1), 9(1)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>9(2), 10(2), 11(2), 12(2)</t>
+          <t>8(1), 9(1)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>8(1), 9(2), 10(2), 11(1)</t>
+          <t>9(1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>9(3), 10(1)</t>
+          <t>8(1), 10(2)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>7(1), 8(2), 9(1), 10(3), 11(3), 12(2)</t>
+          <t>10(1)</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>9(1), 10(1), 11(2), 12(2)</t>
+          <t>11(1)</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -3281,25 +3351,25 @@
         <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>8</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>9</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>10</v>
@@ -3321,42 +3391,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I43" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3371,46 +3433,42 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
+        <v>33</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>55</v>
+      </c>
+      <c r="F44" t="n">
         <v>37</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
+        <v>29</v>
+      </c>
+      <c r="H44" t="n">
         <v>16</v>
       </c>
-      <c r="E44" t="n">
-        <v>67</v>
-      </c>
-      <c r="F44" t="n">
-        <v>33</v>
-      </c>
-      <c r="G44" t="n">
-        <v>28</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
-      </c>
       <c r="I44" t="n">
+        <v>17</v>
+      </c>
+      <c r="J44" t="n">
         <v>20</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
@@ -3421,126 +3479,114 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>t_runs</t>
+          <t>tr.avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C45" t="n">
-        <v>366</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>479</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="H45" t="n">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I45" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>13</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="n">
         <v>3</v>
       </c>
-      <c r="M45" t="n">
-        <v>23</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
-      <c r="O45" t="n">
-        <v>25</v>
-      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" t="n">
-        <v>18</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>30</v>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>runs_pp</t>
+          <t>t_runs</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C46" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="D46" t="n">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="E46" t="n">
+        <v>420</v>
+      </c>
+      <c r="F46" t="n">
+        <v>214</v>
+      </c>
+      <c r="G46" t="n">
+        <v>248</v>
+      </c>
+      <c r="H46" t="n">
+        <v>32</v>
+      </c>
+      <c r="I46" t="n">
+        <v>197</v>
+      </c>
+      <c r="J46" t="n">
         <v>25</v>
       </c>
-      <c r="F46" t="n">
-        <v>16</v>
-      </c>
-      <c r="G46" t="n">
-        <v>7</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -3561,32 +3607,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>runs_mid</t>
+          <t>runs_pp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="C47" t="n">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="D47" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E47" t="n">
-        <v>386</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3598,19 +3644,19 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -3625,62 +3671,62 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>runs_dth</t>
+          <t>runs_mid</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="F48" t="n">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="G48" t="n">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="H48" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3701,50 +3747,50 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>tr_pace</t>
+          <t>runs_dth</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="F49" t="n">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="G49" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="H49" t="n">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
+        <v>18</v>
+      </c>
+      <c r="L49" t="n">
         <v>4</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
+        <v>13</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" t="n">
         <v>3</v>
-      </c>
-      <c r="M49" t="n">
-        <v>23</v>
-      </c>
-      <c r="N49" t="n">
-        <v>13</v>
-      </c>
-      <c r="O49" t="n">
-        <v>25</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3765,62 +3811,62 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>tr_spin</t>
+          <t>tr_pace</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D50" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E50" t="n">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="F50" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G50" t="n">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="H50" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -3835,40 +3881,42 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>runmix_%_pp</t>
+          <t>tr_spin</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C51" t="n">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D51" t="n">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10</v>
+      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -3884,14 +3932,24 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
       <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
@@ -3899,34 +3957,36 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>runmix_%_mid</t>
+          <t>runmix_%_pp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G52" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>64</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -3934,117 +3994,117 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="n">
-        <v>100</v>
-      </c>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>runmix_%_dth</t>
+          <t>runmix_%_mid</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G53" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H53" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I53" t="n">
-        <v>36</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>64</v>
+      </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="O53" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>tr%.pace</t>
+          <t>runmix_%_dth</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H54" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>60</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36</v>
+      </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L54" t="n">
         <v>100</v>
@@ -4053,7 +4113,7 @@
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O54" t="n">
         <v>100</v>
@@ -4066,85 +4126,99 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="n">
-        <v>77</v>
-      </c>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>tr%.spin</t>
+          <t>tr%.pace</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D55" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E55" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F55" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G55" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H55" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I55" t="n">
-        <v>40</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="J55" t="n">
+        <v>60</v>
+      </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="n">
-        <v>23</v>
-      </c>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G03</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t>tr%.spin</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>37</v>
+      </c>
+      <c r="C56" t="n">
+        <v>35</v>
+      </c>
       <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="E56" t="n">
+        <v>37</v>
+      </c>
+      <c r="F56" t="n">
+        <v>48</v>
+      </c>
+      <c r="G56" t="n">
+        <v>39</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15</v>
+      </c>
+      <c r="J56" t="n">
+        <v>40</v>
+      </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -4154,12 +4228,16 @@
       <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>11</v>
+      </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -4169,13 +4247,13 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G11</t>
+          <t>tbwkt.G04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -4183,20 +4261,20 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
       <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4207,7 +4285,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G15</t>
+          <t>tbwkt.G12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -4217,28 +4295,26 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>4</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -4247,34 +4323,36 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G22</t>
+          <t>tbwkt.G16</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>2</v>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4285,7 +4363,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G24</t>
+          <t>tbwkt.G23</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -4298,40 +4376,40 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2</v>
-      </c>
-      <c r="P60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
       <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G30</t>
+          <t>tbwkt.G25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -4340,21 +4418,21 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -4365,36 +4443,36 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G34</t>
+          <t>tbwkt.G31</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
         <v>2</v>
       </c>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
@@ -4405,7 +4483,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G41</t>
+          <t>tbwkt.G35</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -4418,23 +4496,25 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4443,7 +4523,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G44</t>
+          <t>tbwkt.G42</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -4457,20 +4537,22 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="n">
-        <v>2</v>
-      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4479,7 +4561,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G48</t>
+          <t>tbwkt.G49</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -4491,31 +4573,35 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="n">
-        <v>2</v>
-      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G53</t>
+          <t>tbwkt.G54</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -4530,28 +4616,32 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>3</v>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1</v>
-      </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>tbwkt.G56</t>
+          <t>tbwkt.G57</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -4566,170 +4656,156 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
       <c r="O67" t="n">
-        <v>2</v>
-      </c>
-      <c r="P67" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>l3wkts.avg</t>
+          <t>tbwkt.G63</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="n">
-        <v>2</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
       <c r="O68" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>l5wkts.avg</t>
+          <t>l3tbwkt.avg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>0</v>
       </c>
-      <c r="L69" t="n">
-        <v>2</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
       <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="n">
         <v>1.5</v>
       </c>
-      <c r="P69" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.3</v>
+      </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>total_wickets</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
+          <t>l5tbwkt.avg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>6</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>15</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O70" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
@@ -4737,68 +4813,54 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>wkts_pp</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
+          <t>tbwkt.avg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -4807,7 +4869,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>wkts_mid</t>
+          <t>total_wickets</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -4817,58 +4879,58 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1</v>
-      </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O72" t="n">
         <v>17</v>
       </c>
       <c r="P72" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
         <v>5</v>
       </c>
-      <c r="Q72" t="n">
-        <v>2</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1</v>
-      </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -4877,7 +4939,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>wkts_dth</t>
+          <t>wkts_pp</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4887,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -4905,37 +4967,37 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
         <v>8</v>
       </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -4947,7 +5009,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>tbwkt_rhb</t>
+          <t>wkts_mid</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -4957,49 +5019,49 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
+        <v>4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>16</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
         <v>5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" t="n">
-        <v>4</v>
-      </c>
-      <c r="O74" t="n">
-        <v>14</v>
-      </c>
-      <c r="P74" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>3</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5017,7 +5079,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>tbwkt_lhb</t>
+          <t>wkts_dth</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5045,40 +5107,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="n">
+        <v>8</v>
+      </c>
+      <c r="P75" t="n">
         <v>5</v>
       </c>
-      <c r="P75" t="n">
-        <v>2</v>
-      </c>
       <c r="Q75" t="n">
         <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -5087,417 +5149,417 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>wicketmix_%_rate_pp</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>tbwkt_rhb</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
       <c r="D76" t="n">
-        <v>33</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q76" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>wicketmix_%_rate_mid</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>tbwkt_lhb</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
       <c r="D77" t="n">
-        <v>50</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
       <c r="I77" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="O77" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="P77" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
       </c>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>wicketmix_%_rate_dth</t>
+          <t>wicketmix_%_rate_pp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
+        <v>33</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>25</v>
+      </c>
+      <c r="N78" t="n">
+        <v>11</v>
+      </c>
+      <c r="O78" t="n">
+        <v>47</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
         <v>50</v>
       </c>
-      <c r="L78" t="n">
-        <v>53</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>50</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>40</v>
-      </c>
-      <c r="R78" t="n">
-        <v>25</v>
-      </c>
-      <c r="S78" t="n">
-        <v>100</v>
-      </c>
       <c r="T78" t="n">
-        <v>100</v>
-      </c>
-      <c r="U78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
       <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>tbwkt%.lhb</t>
+          <t>wicketmix_%_rate_mid</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K79" t="n">
+        <v>67</v>
+      </c>
+      <c r="L79" t="n">
         <v>50</v>
       </c>
-      <c r="L79" t="n">
-        <v>60</v>
-      </c>
       <c r="M79" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="O79" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="P79" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R79" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T79" t="n">
-        <v>100</v>
-      </c>
-      <c r="U79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
       <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>tbwkt%.rhb</t>
+          <t>wicketmix_%_rate_dth</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>50</v>
+      </c>
+      <c r="M80" t="n">
+        <v>50</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>47</v>
+      </c>
+      <c r="P80" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>50</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" t="n">
         <v>100</v>
       </c>
-      <c r="J80" t="n">
-        <v>86</v>
-      </c>
-      <c r="K80" t="n">
-        <v>50</v>
-      </c>
-      <c r="L80" t="n">
-        <v>40</v>
-      </c>
-      <c r="M80" t="n">
-        <v>67</v>
-      </c>
-      <c r="N80" t="n">
+      <c r="U80" t="n">
         <v>100</v>
       </c>
-      <c r="O80" t="n">
-        <v>74</v>
-      </c>
-      <c r="P80" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>60</v>
-      </c>
-      <c r="R80" t="n">
-        <v>50</v>
-      </c>
-      <c r="S80" t="n">
-        <v>100</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>total_overs_bowled</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
+          <t>tbwkt%.lhb</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>29</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L81" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M81" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O81" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q81" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="R81" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S81" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>4</v>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>tbov_dth</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
+          <t>tbwkt%.rhb</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>15</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="K82" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="L82" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M82" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="O82" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="P82" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="Q82" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R82" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="S82" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="T82" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="U82" t="n">
-        <v>1</v>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>tbov_mid</t>
+          <t>total_overs_bowled</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -5507,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -5522,52 +5584,52 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L83" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M83" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N83" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="O83" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P83" t="n">
         <v>20</v>
       </c>
       <c r="Q83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R83" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U83" t="n">
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>tbov_pp</t>
+          <t>tbov_dth</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -5577,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -5592,52 +5654,52 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12</v>
+      </c>
+      <c r="O84" t="n">
+        <v>16</v>
+      </c>
+      <c r="P84" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>10</v>
+      </c>
+      <c r="R84" t="n">
         <v>8</v>
       </c>
-      <c r="N84" t="n">
-        <v>9</v>
-      </c>
-      <c r="O84" t="n">
-        <v>21</v>
-      </c>
-      <c r="P84" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>12</v>
-      </c>
-      <c r="R84" t="n">
-        <v>6</v>
-      </c>
       <c r="S84" t="n">
+        <v>7</v>
+      </c>
+      <c r="T84" t="n">
+        <v>8</v>
+      </c>
+      <c r="U84" t="n">
         <v>3</v>
       </c>
-      <c r="T84" t="n">
-        <v>2</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1</v>
-      </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>tbov_lhb</t>
+          <t>tbov_mid</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -5647,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -5662,52 +5724,52 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>16</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6</v>
+      </c>
+      <c r="N85" t="n">
+        <v>45</v>
+      </c>
+      <c r="O85" t="n">
         <v>14</v>
       </c>
-      <c r="K85" t="n">
+      <c r="P85" t="n">
         <v>13</v>
       </c>
-      <c r="L85" t="n">
-        <v>13</v>
-      </c>
-      <c r="M85" t="n">
-        <v>12</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3</v>
-      </c>
-      <c r="O85" t="n">
-        <v>29</v>
-      </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
+        <v>7</v>
+      </c>
+      <c r="R85" t="n">
+        <v>17</v>
+      </c>
+      <c r="S85" t="n">
         <v>9</v>
       </c>
-      <c r="Q85" t="n">
-        <v>6</v>
-      </c>
-      <c r="R85" t="n">
-        <v>3</v>
-      </c>
-      <c r="S85" t="n">
-        <v>2</v>
-      </c>
       <c r="T85" t="n">
+        <v>7</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
         <v>4</v>
-      </c>
-      <c r="U85" t="n">
-        <v>4</v>
-      </c>
-      <c r="V85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>tbov_rhb</t>
+          <t>tbov_pp</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -5717,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -5726,180 +5788,204 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L86" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M86" t="n">
         <v>9</v>
       </c>
       <c r="N86" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O86" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P86" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q86" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R86" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>overmix_%_pp</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+          <t>tbov_lhb</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
       <c r="D87" t="n">
-        <v>72</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
       <c r="G87" t="n">
-        <v>100</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
       <c r="I87" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="L87" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="M87" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="O87" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P87" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q87" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="R87" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="S87" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="T87" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="U87" t="n">
-        <v>25</v>
-      </c>
-      <c r="V87" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>overmix_%_rate_mid</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>tbov_rhb</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
       <c r="D88" t="n">
-        <v>83</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
       <c r="G88" t="n">
-        <v>100</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
       <c r="I88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M88" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="N88" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O88" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="P88" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q88" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="R88" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="S88" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="T88" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="U88" t="n">
-        <v>100</v>
-      </c>
-      <c r="V88" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>overmix_%_rate_dth</t>
+          <t>overmix_%_pp</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -5907,26 +5993,24 @@
         <v>100</v>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>50</v>
       </c>
-      <c r="J89" t="n">
-        <v>65</v>
-      </c>
       <c r="K89" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L89" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M89" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N89" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O89" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="P89" t="n">
         <v>45</v>
@@ -5935,23 +6019,25 @@
         <v>75</v>
       </c>
       <c r="R89" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="S89" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="T89" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="U89" t="n">
+        <v>50</v>
+      </c>
+      <c r="V89" t="n">
         <v>25</v>
       </c>
-      <c r="V89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>tbov%.rhb</t>
+          <t>overmix_%_rate_mid</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -5962,60 +6048,60 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>50</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L90" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="M90" t="n">
         <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="O90" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="P90" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>58</v>
+      </c>
+      <c r="R90" t="n">
         <v>100</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="S90" t="n">
+        <v>82</v>
+      </c>
+      <c r="T90" t="n">
+        <v>58</v>
+      </c>
+      <c r="U90" t="n">
+        <v>50</v>
+      </c>
+      <c r="V90" t="n">
         <v>100</v>
       </c>
-      <c r="R90" t="n">
-        <v>90</v>
-      </c>
-      <c r="S90" t="n">
-        <v>88</v>
-      </c>
-      <c r="T90" t="n">
-        <v>75</v>
-      </c>
-      <c r="U90" t="n">
-        <v>75</v>
-      </c>
-      <c r="V90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>tbov%.lhb</t>
+          <t>overmix_%_rate_dth</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -6023,174 +6109,162 @@
         <v>100</v>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>100</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K91" t="n">
+        <v>39</v>
+      </c>
+      <c r="L91" t="n">
+        <v>44</v>
+      </c>
+      <c r="M91" t="n">
+        <v>50</v>
+      </c>
+      <c r="N91" t="n">
+        <v>26</v>
+      </c>
+      <c r="O91" t="n">
+        <v>50</v>
+      </c>
+      <c r="P91" t="n">
         <v>65</v>
       </c>
-      <c r="L91" t="n">
-        <v>46</v>
-      </c>
-      <c r="M91" t="n">
-        <v>80</v>
-      </c>
-      <c r="N91" t="n">
-        <v>30</v>
-      </c>
-      <c r="O91" t="n">
-        <v>62</v>
-      </c>
-      <c r="P91" t="n">
-        <v>45</v>
-      </c>
       <c r="Q91" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="R91" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="S91" t="n">
+        <v>64</v>
+      </c>
+      <c r="T91" t="n">
+        <v>67</v>
+      </c>
+      <c r="U91" t="n">
+        <v>75</v>
+      </c>
+      <c r="V91" t="n">
         <v>25</v>
       </c>
-      <c r="T91" t="n">
-        <v>100</v>
-      </c>
-      <c r="U91" t="n">
-        <v>100</v>
-      </c>
-      <c r="V91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>runs_innings_ratio</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>18</v>
-      </c>
-      <c r="C92" t="n">
-        <v>30</v>
-      </c>
+          <t>tbov%.rhb</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>23</v>
-      </c>
-      <c r="E92" t="n">
-        <v>40</v>
-      </c>
-      <c r="F92" t="n">
-        <v>20</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>30</v>
-      </c>
-      <c r="H92" t="n">
-        <v>15</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V92" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>4xtbwkt_tbov_ratio</t>
+          <t>tbov%.lhb</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>0.8</v>
+        <v>62</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>1.4</v>
+        <v>100</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4</v>
+        <v>83</v>
       </c>
       <c r="L93" t="n">
-        <v>2.1</v>
+        <v>75</v>
       </c>
       <c r="M93" t="n">
-        <v>0.8</v>
+        <v>30</v>
       </c>
       <c r="N93" t="n">
-        <v>1.6</v>
+        <v>65</v>
       </c>
       <c r="O93" t="n">
-        <v>1.6</v>
+        <v>50</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.2</v>
+        <v>42</v>
       </c>
       <c r="R93" t="n">
-        <v>1.6</v>
+        <v>47</v>
       </c>
       <c r="S93" t="n">
-        <v>0.5</v>
+        <v>64</v>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
-      </c>
-      <c r="V93" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="V93" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IPL/Data/exp/pstats_tpose_v01_MI_fyml.xlsx
+++ b/IPL/Data/exp/pstats_tpose_v01_MI_fyml.xlsx
@@ -972,7 +972,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>WKRHB</t>
+          <t>RHB</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
